--- a/save/organizations_info.xlsx
+++ b/save/organizations_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,9 +1382,747 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>10507</t>
+      <c r="G36" t="n">
+        <v>10507</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>めがねの天ぷら</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>http://norinuko.web.fc2.com/megaten/frame.html</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Norinuko's personal circle.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>20427</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pulltop</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>http://www.pulltop.com/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>PULLTOP（プルトップ）为WillPlus有限公司旗下的品牌、软件制作位置为东京开发室。
+2002年时，以椎原旬为主的原Leaf社成员于东京开发室所成立的品牌，过去的作品由椎原旬以及藤原々々两人交互发表，现今两人皆已离开公司。
+2012年8月10日成立姐妹品牌“PULLTOP LATTE”（プルトップ・ラテ），随后此品牌处女作“彼女と俺と恋人と。”发布制作消息[1]，于同年12月14日发售。</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>10104</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>hibiki works</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.hibiki-site.com/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>​    hibiki works，是AkabeiSoft2旗下的Galgame子品牌）。成立于2009年6月20日,前身是晓WORKS 响(日语:暁WORKS-響-)。
+​    在2012年时，母公司AkabeiSoft2因旗下子品牌过多而进行了调整。在将数个品牌统合至AkabeiSoft 3(日语:あかべぇそふとすりぃ)的同时，将"晓WORKS 响"更名为“hibiki works”。
+​    代表作品：《如月真绫的指导》。</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>11868</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>高考恋爱委员会</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://web.archive.org/web/20200218054435/http://www.gaokaolianai.net/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>14942</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Leaf</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>http://leaf.aquaplus.co.jp/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Leaf（日语：リーフ），是AQUAPLUS旗下负责开发及发售日本****的品牌，亦被称为“叶子（葉っぱ）”、“叶”。</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>10049</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Type-Moon</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>型月</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>http://www.typemoon.com/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>TYPE-MOON由以武内崇及奈须蘑菇两人为核心的同人社团竹帚演变而来。 第一个比较有知名度的作品是《空之境界》，在1998年10月至1999年5月期间，奈须在他和武内崇的个人网站“竹帚”上的定期连载。 而奈须个人的小说作品还有收录于设定本《青本》的短篇小说《NOTES. 》，以及曾日本新文学杂志《浮士德》上连载但未完结的DDD系列。 另有未发表作品如《冰之花》等。
+TYPE-MOON真正的成名之作是在2000年的冬Comic Market上发行的《月姬》，凭着TYPE-MOON独有的世界观以及对于生死的感触而吸引了无数的玩家。 该同人游戏作品，被动画化成《真月谭月姬》后，TYPE-MOON继续以同人社团身份出品了《月姬PLUS》、《歌月十夜》、《月箱》。 而他们还与著名同人格斗游戏制作社团“渡边制作所”一起制作了同人格斗游戏《MELTY BLOOD》，2004年5月发售其资料片《MELTY BLOOD Re·act》。 而之后更被街机化，名为“Melty blood Act Cadenza”，并于2006年8月发售PS2版本。
+2003年，武内与奈须设立了Notes有限公司。 同年4月，以同人名义发行了收录过去到现在所发表作品（除了《Melty Blood》）的《月箱》之后，解散了同人社团TYPE-MOON，并将其定位为Notes有限公司之下的一个商业品牌。
+2004年1月30日，有限会社Notes发行了他们在商业公司化后的第一个游戏《Fate/stay night》。 而《Fate/stay night》的Fate路线故事也在2006年1月被动画化。 在2005年秋末，《Fate/stay night》的FAN DISC《Fate/hollow ataraxia》发售。
+2006年12月29日由TYPE-MOON与Nitro+合作发售了《Fate/stay night》的前传小说《Fate/Zero》，并于2010年12月21日公布Fate/Zero动画化的消息，制作公司为ufotable。 动画于2011年10月1日首播，动画分成前半部及后半部；前半部共13集，播映时间为2011年10月－2011年12月；后半部共12集，播映时间为2012年04月至2012年06月；共25集。
+2012年4月12日，《魔法使之夜》在Windows平台登陆，本作是与《月姬》、《Fate/stay night》和《空之境界》相关联的奈须世界的原型。 
+21世纪10年代，型月仅Fate系列被深度开发，创作了数十部系列衍生作品，其他作品虽然也有些许进展，但是不免边缘化。
+2019年8月30日宣布成立新的工作室“TYPE-MOON studio BB”，由前SQUARE ENIX的游戏开发者新纳一哉担任监督。</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FreakilyCharming</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://koteipage.tumblr.com/post/181219840828/%E6%B4%BB%E5%8B%95%E3%81%97%E3%81%A6%E3%82%8B%E3%82%B5%E3%82%A4%E3%83%88%E3%81%AE%E3%83%AA%E3%83%B3%E3%82%AFmy-sns-links</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Old Homepage</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>14590</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>http://sprite.org/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>sprite是日本视觉小说品牌，fairys是全年龄美少女游戏品牌，互为姊妹社。
+sprite是从同属于同一家公司有限会社アクセル的品牌Selen所分拆出来的。虽然同属于一家公司，但是作品的方向性及制作团队的路线皆和Selen不同。之后，在sprite里负责制作全年龄美少女游戏的部门，从sprite里分拆出来，成立品牌fairys。fairys原本也是有限会社アクセル的品牌，2012年3月以フェアリス株式会社为名独自成立为一家公司，分社化经营。
+2018年5月25日，フェアリス株式会社将旗下作品的权利转移给有限会社アクセル股份公司，fairys品牌宣告解散。
+2018年6月26日，sprite宣布停止活动，未来sprite将不会推出新作，原因是“市场规模每年缩小15%，资金流运作困难”，而旗下作品《苍之彼方的四重奏》的Perfect Edition/4th Anniversary Box版按原定计划依旧在11月发售，《苍之彼方四重奏》的iOS/Android移植版也预定于8月发布，但是其Fandisc《苍之彼方四重奏EXTRA2/ZWEI》则停止制作。官网商店也预定于次年春天关闭，重开活动时间未定。
+2019年3月25日，sprite/fairys公式的Twitter账户宣布结束活动并解散sprite。
+2019年11月27日晚上，sprite在官网宣布重新复活，并将以sprite的原成员为核心重组成新的工作室“S-WORKS”。</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2010-01-05</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>11239</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>tone work's</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>http://toneworks.product.co.jp/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tone work's是日本VISUAL ARTS（日语：ビジュアルアーツ）社旗下的一个游戏品牌，主打甜的要死的日常向GalGame，治愈心灵必备。</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>12270</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HOOKSOFT</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>http://www.hook-net.jp/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>HOOKSOFT是日本ロボプランニング公司的游戏品牌，主要发售恋爱冒险类型的****。最早原名为HOOK，于2000年4月成立，并在2008年12月2日重整后改为现名。
+SMEE、ASa Project与TJR(已活动休止)是其姐妹品牌。目前是Partner Brand（パートナーブランド）的加盟品牌之一。</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>10134</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ま～まれぇど</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>http://www.web-marmalade.com/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">​    ま～まれぇど，日本的R18 Galgame公司。
+​    取这个公司名是因为有公司员工喜欢『ママレード・ボーイ』。擅长制作强调萌属性的作品。  
+​    代表作品：《见习恋人》系列。 </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>10391</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Aino+Links</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>http://ainolinks.com/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>​    Aino+Links，日本Galgame品牌。
+​    据说是AkabeiSoft2收购Campus创立的子品牌(但未在AkabeiSoft2看见友链,仍存疑)。
+​    代表作品：《创作彼女的恋爱公式》。</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-05-21</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>21243</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Elf</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>妖精社</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>http://web.archive.org/web/20151221152918/http://www.elf-game.co.jp/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ELF游戏公司，株式会社エルフ（elf），
+日本一家游戏制作公司，成立于****年4月27日。
+曾与Alice Soft并称为“东之ELF,西之ALICE”。
+代表作品： 《龙骑士》系列、《同级生》系列、《下级生》《遗作》《臭作》《鬼作》等。</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1989-04-27</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>10149</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Heliodor</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Twitter account: https://twitter.com/Heliodor_info</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>17730</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FAVORITE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>http://www.favo.co.jp/soft/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>FAVORITE（フェイバリット）最初是CROSSNET有限公司旗下的****品牌，母公司结束营运后独自成立FAVORITE公司继续制作发售游戏。</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>10586</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ステージなな</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>http://stage-nana.sakura.ne.jp/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ALcot</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>彩牙社</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>http://www.alcot.biz/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>即彩牙股份有限公司。
+ALcot（アルコット）是日本CLOVER SOFTWARE（クローバーソフトウェア）公司旗下的****品牌。
+该品牌的前身是同人社团APPLE project。
+原本有其他姊妹品牌ALcot Honey Comb（ALcot ハニカム）和ALcot Citrus（ALcot シトラス），现在ALcot Citrus已并入ALcot Honey Comb。</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2003-11-28</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>White Powder</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>http://whitepowder.jp/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>15166</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>默认机构</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>这个是【默认机构】
+一个游戏如果没有开发商的话， 那开发商项默认为本档案。</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>アージュ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>http://www.age-soft.co.jp/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>âge（日语：アージュ）是日本公司Acid的****品牌，以2001年游戏《你所期望的永远》而闻名</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Laplacian</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://laplacian.jp/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>​    Laplacian(日语:ラプラシアン)，是日本Galgame品牌。
+​    旗下有R18子品牌PRINCIPIA (成立于2021年)。
+​    Laplacian社由一群理科爱好者创立，作品大多为科幻类题材。
+​    代表作品：《白日梦的构想图》和《牛顿与苹果树》。</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2015-12-28</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>15428</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>默认机构</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>这个是【默认机构】
+一个游戏如果没有开发商的话， 那开发商项默认为本档案。</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>みるくふぁくとりー</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>http://milkfactory.jp/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>A new brand formed after TechArts' closure.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>16247</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>feng</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>http://www.feng.jp/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">feng是一家位于日本千叶县市川市南八幡 3-6-18 名为ミーナアサヒ的建筑704号 的游戏制作公司（白玫瑰有限公司）。
+名字来源于汉字里的风的拼音。
+前身是上样（うえさま）为中心结成的同人社团[みぎやじるし]，在2003年5月份法人化。
+因为日常的剧情还有画师受到不少人的喜爱，
+其作品在空之三部曲（简称空3）开始走向成熟，
+空之三部曲的后两作《あかね色に染まる坂》（TNK制作）与《星空へ架かる橋》（动画工房制作）也相继进行了TV动画化。
+不过随着市场需求的低迷，feng的业绩也并不如意。
+虽然曾尝试推出《她的圣域》、《妹的圣域》、《学校的圣域》等低价作品，
+后又在2019年2月22日推出了正常价格版的《由梦想和色彩组合而成》。
+但由于业绩依旧没有改善，最终于2019年5月末停业，于9月30日接受了日本千叶地方**的开始破产手续的决定。
+</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>10297</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Smee</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>http://www.hook-net.jp/smee/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Galgame品牌HOOKSOFT的姊妹品牌。</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>10336</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Purple software</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>紫社</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>http://www.purplesoftware.jp/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Purple software（原名为英文；片假名转写：パープルソフトウェア）是Clear Blue Communications（クリアブルーコミュニケーションズ）股份有限公司的****品牌。
+1998年JAST设立了Purple品牌，2001年让渡给Clear Blue Communications（クリアブルーコミュニケーションズ），变更为现在的品牌名直到现在。
+</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>10150</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Novectacle</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://novect.net/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>13090</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Hulotte</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>http://hulotte.jp/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Hulotte 是日本****品牌。品牌名称的意思是“猫头鹰”。</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CREOsoftware</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>http://creo.main.jp/</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Purzel2205</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Individual at DDLC Mods Community.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>17265</t>
         </is>
       </c>
     </row>
